--- a/biology/Zoologie/Grand-duc_indien/Grand-duc_indien.xlsx
+++ b/biology/Zoologie/Grand-duc_indien/Grand-duc_indien.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bubo bengalensis
 Le Grand-duc indien (Bubo bengalensis) est une espèce de rapaces nocturnes de la famille des Strigidae.
@@ -512,7 +524,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau vit en Asie du Sud : Pakistan, Inde, Népal, Bangladesh et ouest du Myanmar.
 </t>
@@ -543,7 +557,9 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il était considéré précédemment  comme une sous-espèce du Hibou grand-duc.
 </t>
@@ -574,7 +590,9 @@
           <t>Habitat et comportement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">On le trouve dans les forêts et broussailles de collines rocheuses où il vit généralement en couple. Il a un cri puissant en plein vol qui peut être entendu à l'aube et au crépuscule. Il est tacheté de brun et de gris et a une tache blanche avec de petites rayures noires sur la gorge.
 On peut le voir dans les maquis et les clairières mais particulièrement à proximité des endroits rocailleux. Il passe la journée à l'abri d'un buisson ou des rochers, ou dans un manguier ou arbre analogue près des villages.
@@ -606,7 +624,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Son régime alimentaire se compose de souris, de petits rongeurs et autres mammifères et parfois d'oiseaux.
 </t>
